--- a/biology/Botanique/Carex_panicea/Carex_panicea.xlsx
+++ b/biology/Botanique/Carex_panicea/Carex_panicea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex panicea L., la Laîche millet, est une espèce végétale du genre Carex et de la famille des Cyperaceae. C'est une plante herbacée pérenne originaire d'Eurasie vivant dans les prairies humides.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carex mucronata
 Carex depauperata 
@@ -543,7 +557,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Français : Laîche bleuâtre ou Laîche faux panic, ou Laîche millet.
 Néerlandais : Blauwe zegge
